--- a/aegis_publication/contribution_analysis_ags.xlsx
+++ b/aegis_publication/contribution_analysis_ags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\GitHub\stem_to_premise_advanced_geothermal\aegis_publication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB9B0E-65C6-45F9-BC73-BB97F47832B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC7A1C9-B8D1-4756-ADD2-8C39FDBE3B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1653</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -740,9 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1653"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
